--- a/storage/excel/sum133.xlsx
+++ b/storage/excel/sum133.xlsx
@@ -1536,19 +1536,19 @@
         <v>129740.27105019</v>
       </c>
       <c r="D11" s="25">
-        <v>0.091768748788838</v>
+        <v>9.1768748788838</v>
       </c>
       <c r="E11" s="25">
         <v>215038.91927821</v>
       </c>
       <c r="F11" s="25">
-        <v>0.070428293319794</v>
+        <v>7.0428293319794</v>
       </c>
       <c r="G11" s="25">
-        <v>346639.30705732</v>
+        <v>34663930.705732</v>
       </c>
       <c r="H11" s="25">
-        <v>0.077598686357393</v>
+        <v>7.7598686357393</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1560,22 +1560,22 @@
         <v>25</v>
       </c>
       <c r="Q11" s="25">
-        <v>0</v>
+        <v>3371.2587592404</v>
       </c>
       <c r="R11" s="25">
-        <v>0</v>
+        <v>0.23845810994122</v>
       </c>
       <c r="S11" s="25">
-        <v>0</v>
+        <v>1837.2526066584</v>
       </c>
       <c r="T11" s="25">
-        <v>0</v>
+        <v>0.060172626387176</v>
       </c>
       <c r="U11" s="25">
-        <v>0</v>
+        <v>536391.18965784</v>
       </c>
       <c r="V11" s="25">
-        <v>0</v>
+        <v>0.12007654886133</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1587,10 +1587,10 @@
         <v>26</v>
       </c>
       <c r="AE11" s="25">
-        <v>0</v>
+        <v>1684.0175256637</v>
       </c>
       <c r="AF11" s="25">
-        <v>0</v>
+        <v>0.11911504424779</v>
       </c>
       <c r="AG11" s="25">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="AI11" s="25">
-        <v>0</v>
+        <v>178784.28103646</v>
       </c>
       <c r="AJ11" s="25">
-        <v>0</v>
+        <v>0.040022654867257</v>
       </c>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
@@ -1728,19 +1728,19 @@
         <v>1243581.8475468</v>
       </c>
       <c r="D12" s="25">
-        <v>0.87961855823267</v>
+        <v>87.961855823267</v>
       </c>
       <c r="E12" s="25">
         <v>2693040.7604966</v>
       </c>
       <c r="F12" s="25">
-        <v>0.88200901138754</v>
+        <v>88.200901138754</v>
       </c>
       <c r="G12" s="25">
-        <v>3936414.2468906</v>
+        <v>393641424.68906</v>
       </c>
       <c r="H12" s="25">
-        <v>0.8812058191275</v>
+        <v>88.12058191275</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1752,22 +1752,22 @@
         <v>28</v>
       </c>
       <c r="Q12" s="25">
-        <v>0</v>
+        <v>1684.0175256637</v>
       </c>
       <c r="R12" s="25">
-        <v>0</v>
+        <v>0.11911504424779</v>
       </c>
       <c r="S12" s="25">
-        <v>0</v>
+        <v>5513.6712556698</v>
       </c>
       <c r="T12" s="25">
-        <v>0</v>
+        <v>0.180580546892</v>
       </c>
       <c r="U12" s="25">
-        <v>0</v>
+        <v>714411.30692846</v>
       </c>
       <c r="V12" s="25">
-        <v>0</v>
+        <v>0.15992813800354</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1779,22 +1779,22 @@
         <v>28</v>
       </c>
       <c r="AE12" s="25">
-        <v>0</v>
+        <v>5055.2762849041</v>
       </c>
       <c r="AF12" s="25">
-        <v>0</v>
+        <v>0.35757315418901</v>
       </c>
       <c r="AG12" s="25">
-        <v>0</v>
+        <v>5515.5846913643</v>
       </c>
       <c r="AH12" s="25">
-        <v>0</v>
+        <v>0.18064321462247</v>
       </c>
       <c r="AI12" s="25">
-        <v>0</v>
+        <v>1072507.9962322</v>
       </c>
       <c r="AJ12" s="25">
-        <v>0</v>
+        <v>0.24009167431683</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="AU12" s="25">
-        <v>0</v>
+        <v>1839.1660423529</v>
       </c>
       <c r="AV12" s="25">
-        <v>0</v>
+        <v>0.060235294117647</v>
       </c>
       <c r="AW12" s="25">
-        <v>0</v>
+        <v>178666.26276894</v>
       </c>
       <c r="AX12" s="25">
-        <v>0</v>
+        <v>0.039996235294118</v>
       </c>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
@@ -1920,19 +1920,19 @@
         <v>40451.881402971</v>
       </c>
       <c r="D13" s="26">
-        <v>0.02861269297849</v>
+        <v>2.861269297849</v>
       </c>
       <c r="E13" s="26">
         <v>145223.32022519</v>
       </c>
       <c r="F13" s="26">
-        <v>0.047562695292667</v>
+        <v>4.7562695292667</v>
       </c>
       <c r="G13" s="26">
-        <v>184023.44605204</v>
+        <v>18402344.605204</v>
       </c>
       <c r="H13" s="26">
-        <v>0.041195494515103</v>
+        <v>4.1195494515103</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1950,16 +1950,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="26">
-        <v>0</v>
+        <v>1837.2526066584</v>
       </c>
       <c r="T13" s="26">
-        <v>0</v>
+        <v>0.060172626387176</v>
       </c>
       <c r="U13" s="26">
-        <v>0</v>
+        <v>178480.38156153</v>
       </c>
       <c r="V13" s="26">
-        <v>0</v>
+        <v>0.039954623921085</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1971,22 +1971,22 @@
         <v>30</v>
       </c>
       <c r="AE13" s="26">
-        <v>0</v>
+        <v>5055.2762849041</v>
       </c>
       <c r="AF13" s="26">
-        <v>0</v>
+        <v>0.35757315418901</v>
       </c>
       <c r="AG13" s="26">
-        <v>0</v>
+        <v>7352.8372980228</v>
       </c>
       <c r="AH13" s="26">
-        <v>0</v>
+        <v>0.24081584100965</v>
       </c>
       <c r="AI13" s="26">
-        <v>0</v>
+        <v>1250988.3777937</v>
       </c>
       <c r="AJ13" s="26">
-        <v>0</v>
+        <v>0.28004629823791</v>
       </c>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
@@ -1998,22 +1998,22 @@
         <v>30</v>
       </c>
       <c r="AS13" s="26">
-        <v>0</v>
+        <v>1684.0175256637</v>
       </c>
       <c r="AT13" s="26">
-        <v>0</v>
+        <v>0.11911504424779</v>
       </c>
       <c r="AU13" s="26">
-        <v>0</v>
+        <v>3676.4186490114</v>
       </c>
       <c r="AV13" s="26">
-        <v>0</v>
+        <v>0.12040792050482</v>
       </c>
       <c r="AW13" s="26">
-        <v>0</v>
+        <v>535930.92536693</v>
       </c>
       <c r="AX13" s="26">
-        <v>0</v>
+        <v>0.11997351408246</v>
       </c>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
@@ -2025,22 +2025,22 @@
         <v>31</v>
       </c>
       <c r="BG13" s="26">
-        <v>0</v>
+        <v>5055.2762849041</v>
       </c>
       <c r="BH13" s="26">
-        <v>0</v>
+        <v>0.35757315418901</v>
       </c>
       <c r="BI13" s="26">
-        <v>0</v>
+        <v>3676.4186490114</v>
       </c>
       <c r="BJ13" s="26">
-        <v>0</v>
+        <v>0.12040792050482</v>
       </c>
       <c r="BK13" s="26">
-        <v>0</v>
+        <v>893841.73346324</v>
       </c>
       <c r="BL13" s="26">
-        <v>0</v>
+        <v>0.20009543902271</v>
       </c>
       <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
@@ -2184,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="AU14" s="26">
-        <v>0</v>
+        <v>3674.5052133169</v>
       </c>
       <c r="AV14" s="26">
-        <v>0</v>
+        <v>0.12034525277435</v>
       </c>
       <c r="AW14" s="26">
-        <v>0</v>
+        <v>356960.76312306</v>
       </c>
       <c r="AX14" s="26">
-        <v>0</v>
+        <v>0.07990924784217</v>
       </c>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
@@ -2315,10 +2315,10 @@
         <v>33</v>
       </c>
       <c r="AE15" s="26">
-        <v>0</v>
+        <v>1684.0175256637</v>
       </c>
       <c r="AF15" s="26">
-        <v>0</v>
+        <v>0.11911504424779</v>
       </c>
       <c r="AG15" s="26">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="AI15" s="26">
-        <v>0</v>
+        <v>178784.28103646</v>
       </c>
       <c r="AJ15" s="26">
-        <v>0</v>
+        <v>0.040022654867257</v>
       </c>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
